--- a/output.xlsx
+++ b/output.xlsx
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,8 +595,8 @@
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col hidden="1" width="13" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col hidden="1" width="13" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
@@ -609,8 +609,9 @@
     <col width="21" customWidth="1" min="16" max="16"/>
     <col width="21" customWidth="1" min="17" max="17"/>
     <col width="21" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col hidden="1" width="13" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col hidden="1" width="13" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -638,6 +639,7 @@
       <c r="R1" s="3" t="n"/>
       <c r="S1" s="3" t="n"/>
       <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
@@ -664,6 +666,7 @@
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
       <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3" t="n"/>
@@ -686,6 +689,7 @@
       <c r="R3" s="3" t="n"/>
       <c r="S3" s="3" t="n"/>
       <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
     </row>
     <row r="4" ht="77" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
@@ -710,81 +714,86 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
+          <t>Вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
           <t>otrasl_ord</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>2024 год</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>2025 год</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>2026 год</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>2027 год</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>2028 год</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>2029 год</t>
         </is>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>2030 год</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>2031 год</t>
         </is>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>2032 год</t>
         </is>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>2033 год</t>
         </is>
       </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>2034 год</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>2035 год</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>2036 год</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>Прирост
 2024-2036</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>style</t>
         </is>
@@ -800,49 +809,50 @@
       <c r="C5" s="7" t="inlineStr"/>
       <c r="D5" s="7" t="inlineStr"/>
       <c r="E5" s="7" t="inlineStr"/>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="7" t="inlineStr"/>
+      <c r="G5" s="8" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="H5" s="8" t="n">
         <v>1916.31</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="I5" s="8" t="n">
         <v>1951.82</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="J5" s="8" t="n">
         <v>1965.52</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="K5" s="8" t="n">
         <v>1968.29</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="L5" s="8" t="n">
         <v>2087.12</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="M5" s="8" t="n">
         <v>2087.58</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="N5" s="8" t="n">
         <v>2087.78</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="O5" s="8" t="n">
         <v>2087.98</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="P5" s="8" t="n">
         <v>2088.18</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="Q5" s="8" t="n">
         <v>2088.38</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="R5" s="8" t="n">
         <v>2088.53</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="S5" s="8" t="n">
         <v>2088.68</v>
       </c>
-      <c r="S5" s="8" t="n">
+      <c r="T5" s="8" t="n">
         <v>175.47</v>
       </c>
-      <c r="T5" s="7" t="inlineStr">
+      <c r="U5" s="7" t="inlineStr">
         <is>
           <t>s01</t>
         </is>
@@ -858,49 +868,50 @@
       <c r="C6" s="10" t="inlineStr"/>
       <c r="D6" s="10" t="inlineStr"/>
       <c r="E6" s="10" t="inlineStr"/>
-      <c r="F6" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="10" t="inlineStr"/>
       <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="I6" s="11" t="n">
         <v>7.68</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="J6" s="11" t="n">
         <v>27.84</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="K6" s="11" t="n">
         <v>1161.44</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="L6" s="11" t="n">
         <v>1963.19</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>2067.59</v>
       </c>
       <c r="M6" s="11" t="n">
         <v>2067.59</v>
       </c>
       <c r="N6" s="11" t="n">
+        <v>2067.59</v>
+      </c>
+      <c r="O6" s="11" t="n">
         <v>2338.89</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="P6" s="11" t="n">
         <v>2336.69</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="Q6" s="11" t="n">
         <v>2334.09</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="R6" s="11" t="n">
         <v>2332.19</v>
-      </c>
-      <c r="R6" s="11" t="n">
-        <v>2330.49</v>
       </c>
       <c r="S6" s="11" t="n">
         <v>2330.49</v>
       </c>
-      <c r="T6" s="10" t="inlineStr">
+      <c r="T6" s="11" t="n">
+        <v>2330.49</v>
+      </c>
+      <c r="U6" s="10" t="inlineStr">
         <is>
           <t>s03</t>
         </is>
@@ -916,26 +927,24 @@
       <c r="C7" s="13" t="inlineStr"/>
       <c r="D7" s="13" t="inlineStr"/>
       <c r="E7" s="13" t="inlineStr"/>
-      <c r="F7" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="13" t="inlineStr"/>
       <c r="G7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="I7" s="14" t="n">
         <v>7.68</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="J7" s="14" t="n">
         <v>27.84</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="K7" s="14" t="n">
         <v>143.6</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="L7" s="14" t="n">
         <v>273.39</v>
-      </c>
-      <c r="L7" s="14" t="n">
-        <v>377.79</v>
       </c>
       <c r="M7" s="14" t="n">
         <v>377.79</v>
@@ -944,21 +953,24 @@
         <v>377.79</v>
       </c>
       <c r="O7" s="14" t="n">
+        <v>377.79</v>
+      </c>
+      <c r="P7" s="14" t="n">
         <v>375.59</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="Q7" s="14" t="n">
         <v>372.99</v>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="R7" s="14" t="n">
         <v>371.09</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>369.39</v>
       </c>
       <c r="S7" s="14" t="n">
         <v>369.39</v>
       </c>
-      <c r="T7" s="13" t="inlineStr">
+      <c r="T7" s="14" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="U7" s="13" t="inlineStr">
         <is>
           <t>s031</t>
         </is>
@@ -974,9 +986,7 @@
       <c r="C8" s="13" t="inlineStr"/>
       <c r="D8" s="13" t="inlineStr"/>
       <c r="E8" s="13" t="inlineStr"/>
-      <c r="F8" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="13" t="inlineStr"/>
       <c r="G8" s="14" t="n">
         <v>0</v>
       </c>
@@ -987,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="n">
         <v>1017.84</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <v>1689.8</v>
       </c>
       <c r="L8" s="14" t="n">
         <v>1689.8</v>
@@ -999,7 +1009,7 @@
         <v>1689.8</v>
       </c>
       <c r="N8" s="14" t="n">
-        <v>1961.1</v>
+        <v>1689.8</v>
       </c>
       <c r="O8" s="14" t="n">
         <v>1961.1</v>
@@ -1016,7 +1026,10 @@
       <c r="S8" s="14" t="n">
         <v>1961.1</v>
       </c>
-      <c r="T8" s="13" t="inlineStr">
+      <c r="T8" s="14" t="n">
+        <v>1961.1</v>
+      </c>
+      <c r="U8" s="13" t="inlineStr">
         <is>
           <t>s051</t>
         </is>
@@ -1032,26 +1045,24 @@
       <c r="C9" s="16" t="inlineStr"/>
       <c r="D9" s="16" t="inlineStr"/>
       <c r="E9" s="16" t="inlineStr"/>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="16" t="inlineStr"/>
+      <c r="G9" s="17" t="n">
         <v>2.34</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="H9" s="17" t="n">
         <v>2.55</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="I9" s="17" t="n">
         <v>6.97</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="J9" s="17" t="n">
         <v>15.21</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="K9" s="17" t="n">
         <v>155.47</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="L9" s="17" t="n">
         <v>233.81</v>
-      </c>
-      <c r="L9" s="17" t="n">
-        <v>338.21</v>
       </c>
       <c r="M9" s="17" t="n">
         <v>338.21</v>
@@ -1072,9 +1083,12 @@
         <v>338.21</v>
       </c>
       <c r="S9" s="17" t="n">
+        <v>338.21</v>
+      </c>
+      <c r="T9" s="17" t="n">
         <v>335.87</v>
       </c>
-      <c r="T9" s="16" t="inlineStr">
+      <c r="U9" s="16" t="inlineStr">
         <is>
           <t>s06</t>
         </is>
@@ -1107,49 +1121,50 @@
       <c r="C10" s="19" t="inlineStr"/>
       <c r="D10" s="19" t="inlineStr"/>
       <c r="E10" s="19" t="inlineStr"/>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="19" t="inlineStr"/>
+      <c r="G10" s="20" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="H10" s="20" t="n">
         <v>1918.31</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="I10" s="20" t="n">
         <v>1959.5</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="J10" s="20" t="n">
         <v>1993.36</v>
       </c>
-      <c r="J10" s="20" t="n">
+      <c r="K10" s="20" t="n">
         <v>2111.89</v>
       </c>
-      <c r="K10" s="20" t="n">
+      <c r="L10" s="20" t="n">
         <v>2360.51</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="M10" s="20" t="n">
         <v>2465.37</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="N10" s="20" t="n">
         <v>2465.57</v>
       </c>
-      <c r="N10" s="20" t="n">
+      <c r="O10" s="20" t="n">
         <v>2465.77</v>
       </c>
-      <c r="O10" s="20" t="n">
+      <c r="P10" s="20" t="n">
         <v>2463.77</v>
       </c>
-      <c r="P10" s="20" t="n">
+      <c r="Q10" s="20" t="n">
         <v>2461.37</v>
       </c>
-      <c r="Q10" s="20" t="n">
+      <c r="R10" s="20" t="n">
         <v>2459.62</v>
       </c>
-      <c r="R10" s="20" t="n">
+      <c r="S10" s="20" t="n">
         <v>2458.07</v>
       </c>
-      <c r="S10" s="20" t="n">
+      <c r="T10" s="20" t="n">
         <v>544.86</v>
       </c>
-      <c r="T10" s="19" t="inlineStr">
+      <c r="U10" s="19" t="inlineStr">
         <is>
           <t>s02</t>
         </is>
@@ -1182,49 +1197,50 @@
       <c r="C11" s="19" t="inlineStr"/>
       <c r="D11" s="19" t="inlineStr"/>
       <c r="E11" s="19" t="inlineStr"/>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="19" t="inlineStr"/>
+      <c r="G11" s="20" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="H11" s="20" t="n">
         <v>1918.31</v>
       </c>
-      <c r="H11" s="20" t="n">
+      <c r="I11" s="20" t="n">
         <v>1959.5</v>
       </c>
-      <c r="I11" s="20" t="n">
+      <c r="J11" s="20" t="n">
         <v>1993.36</v>
       </c>
-      <c r="J11" s="20" t="n">
+      <c r="K11" s="20" t="n">
         <v>3129.73</v>
       </c>
-      <c r="K11" s="20" t="n">
+      <c r="L11" s="20" t="n">
         <v>4050.31</v>
       </c>
-      <c r="L11" s="20" t="n">
+      <c r="M11" s="20" t="n">
         <v>4155.17</v>
       </c>
-      <c r="M11" s="20" t="n">
+      <c r="N11" s="20" t="n">
         <v>4155.37</v>
       </c>
-      <c r="N11" s="20" t="n">
+      <c r="O11" s="20" t="n">
         <v>4426.87</v>
       </c>
-      <c r="O11" s="20" t="n">
+      <c r="P11" s="20" t="n">
         <v>4424.87</v>
       </c>
-      <c r="P11" s="20" t="n">
+      <c r="Q11" s="20" t="n">
         <v>4422.47</v>
       </c>
-      <c r="Q11" s="20" t="n">
+      <c r="R11" s="20" t="n">
         <v>4420.72</v>
       </c>
-      <c r="R11" s="20" t="n">
+      <c r="S11" s="20" t="n">
         <v>4419.17</v>
       </c>
-      <c r="S11" s="20" t="n">
+      <c r="T11" s="20" t="n">
         <v>2505.96</v>
       </c>
-      <c r="T11" s="19" t="inlineStr">
+      <c r="U11" s="19" t="inlineStr">
         <is>
           <t>s02</t>
         </is>
@@ -1240,49 +1256,50 @@
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="H12" s="8" t="n">
         <v>1916.31</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="I12" s="8" t="n">
         <v>1951.82</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="J12" s="8" t="n">
         <v>1965.52</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="K12" s="8" t="n">
         <v>1968.29</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="L12" s="8" t="n">
         <v>2087.12</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="M12" s="8" t="n">
         <v>2087.58</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="N12" s="8" t="n">
         <v>2087.78</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="O12" s="8" t="n">
         <v>2087.98</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="P12" s="8" t="n">
         <v>2088.18</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="Q12" s="8" t="n">
         <v>2088.38</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="R12" s="8" t="n">
         <v>2088.53</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="S12" s="8" t="n">
         <v>2088.68</v>
       </c>
-      <c r="S12" s="8" t="n">
+      <c r="T12" s="8" t="n">
         <v>175.47</v>
       </c>
-      <c r="T12" s="7" t="inlineStr">
+      <c r="U12" s="7" t="inlineStr">
         <is>
           <t>s01</t>
         </is>
@@ -1298,49 +1315,50 @@
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
-      <c r="F13" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="10" t="inlineStr"/>
       <c r="G13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="I13" s="11" t="n">
         <v>7.68</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="J13" s="11" t="n">
         <v>27.84</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="K13" s="11" t="n">
         <v>1161.44</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="L13" s="11" t="n">
         <v>1963.19</v>
-      </c>
-      <c r="L13" s="11" t="n">
-        <v>2067.59</v>
       </c>
       <c r="M13" s="11" t="n">
         <v>2067.59</v>
       </c>
       <c r="N13" s="11" t="n">
+        <v>2067.59</v>
+      </c>
+      <c r="O13" s="11" t="n">
         <v>2338.89</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="P13" s="11" t="n">
         <v>2336.69</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="Q13" s="11" t="n">
         <v>2334.09</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="R13" s="11" t="n">
         <v>2332.19</v>
-      </c>
-      <c r="R13" s="11" t="n">
-        <v>2330.49</v>
       </c>
       <c r="S13" s="11" t="n">
         <v>2330.49</v>
       </c>
-      <c r="T13" s="10" t="inlineStr">
+      <c r="T13" s="11" t="n">
+        <v>2330.49</v>
+      </c>
+      <c r="U13" s="10" t="inlineStr">
         <is>
           <t>s03</t>
         </is>
@@ -1356,26 +1374,24 @@
       <c r="C14" s="13" t="inlineStr"/>
       <c r="D14" s="13" t="inlineStr"/>
       <c r="E14" s="13" t="inlineStr"/>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="13" t="inlineStr"/>
       <c r="G14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="I14" s="14" t="n">
         <v>7.68</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="J14" s="14" t="n">
         <v>27.84</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="K14" s="14" t="n">
         <v>143.6</v>
       </c>
-      <c r="K14" s="14" t="n">
+      <c r="L14" s="14" t="n">
         <v>273.39</v>
-      </c>
-      <c r="L14" s="14" t="n">
-        <v>377.79</v>
       </c>
       <c r="M14" s="14" t="n">
         <v>377.79</v>
@@ -1384,21 +1400,24 @@
         <v>377.79</v>
       </c>
       <c r="O14" s="14" t="n">
+        <v>377.79</v>
+      </c>
+      <c r="P14" s="14" t="n">
         <v>375.59</v>
       </c>
-      <c r="P14" s="14" t="n">
+      <c r="Q14" s="14" t="n">
         <v>372.99</v>
       </c>
-      <c r="Q14" s="14" t="n">
+      <c r="R14" s="14" t="n">
         <v>371.09</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>369.39</v>
       </c>
       <c r="S14" s="14" t="n">
         <v>369.39</v>
       </c>
-      <c r="T14" s="13" t="inlineStr">
+      <c r="T14" s="14" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="U14" s="13" t="inlineStr">
         <is>
           <t>s031</t>
         </is>
@@ -1414,9 +1433,7 @@
       <c r="C15" s="13" t="inlineStr"/>
       <c r="D15" s="13" t="inlineStr"/>
       <c r="E15" s="13" t="inlineStr"/>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="13" t="inlineStr"/>
       <c r="G15" s="14" t="n">
         <v>0</v>
       </c>
@@ -1427,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="n">
         <v>1017.84</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>1689.8</v>
       </c>
       <c r="L15" s="14" t="n">
         <v>1689.8</v>
@@ -1439,7 +1456,7 @@
         <v>1689.8</v>
       </c>
       <c r="N15" s="14" t="n">
-        <v>1961.1</v>
+        <v>1689.8</v>
       </c>
       <c r="O15" s="14" t="n">
         <v>1961.1</v>
@@ -1456,7 +1473,10 @@
       <c r="S15" s="14" t="n">
         <v>1961.1</v>
       </c>
-      <c r="T15" s="13" t="inlineStr">
+      <c r="T15" s="14" t="n">
+        <v>1961.1</v>
+      </c>
+      <c r="U15" s="13" t="inlineStr">
         <is>
           <t>s051</t>
         </is>
@@ -1472,26 +1492,24 @@
       <c r="C16" s="16" t="inlineStr"/>
       <c r="D16" s="16" t="inlineStr"/>
       <c r="E16" s="16" t="inlineStr"/>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="16" t="inlineStr"/>
+      <c r="G16" s="17" t="n">
         <v>2.34</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="H16" s="17" t="n">
         <v>2.55</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="I16" s="17" t="n">
         <v>6.97</v>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="J16" s="17" t="n">
         <v>15.21</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="K16" s="17" t="n">
         <v>155.47</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="L16" s="17" t="n">
         <v>233.81</v>
-      </c>
-      <c r="L16" s="17" t="n">
-        <v>338.21</v>
       </c>
       <c r="M16" s="17" t="n">
         <v>338.21</v>
@@ -1512,9 +1530,12 @@
         <v>338.21</v>
       </c>
       <c r="S16" s="17" t="n">
+        <v>338.21</v>
+      </c>
+      <c r="T16" s="17" t="n">
         <v>335.87</v>
       </c>
-      <c r="T16" s="16" t="inlineStr">
+      <c r="U16" s="16" t="inlineStr">
         <is>
           <t>s06</t>
         </is>
@@ -1547,49 +1568,50 @@
       <c r="C17" s="19" t="inlineStr"/>
       <c r="D17" s="19" t="inlineStr"/>
       <c r="E17" s="19" t="inlineStr"/>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="19" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G17" s="20" t="n">
+      <c r="H17" s="20" t="n">
         <v>1918.31</v>
       </c>
-      <c r="H17" s="20" t="n">
+      <c r="I17" s="20" t="n">
         <v>1959.5</v>
       </c>
-      <c r="I17" s="20" t="n">
+      <c r="J17" s="20" t="n">
         <v>1993.36</v>
       </c>
-      <c r="J17" s="20" t="n">
+      <c r="K17" s="20" t="n">
         <v>2111.89</v>
       </c>
-      <c r="K17" s="20" t="n">
+      <c r="L17" s="20" t="n">
         <v>2360.51</v>
       </c>
-      <c r="L17" s="20" t="n">
+      <c r="M17" s="20" t="n">
         <v>2465.37</v>
       </c>
-      <c r="M17" s="20" t="n">
+      <c r="N17" s="20" t="n">
         <v>2465.57</v>
       </c>
-      <c r="N17" s="20" t="n">
+      <c r="O17" s="20" t="n">
         <v>2465.77</v>
       </c>
-      <c r="O17" s="20" t="n">
+      <c r="P17" s="20" t="n">
         <v>2463.77</v>
       </c>
-      <c r="P17" s="20" t="n">
+      <c r="Q17" s="20" t="n">
         <v>2461.37</v>
       </c>
-      <c r="Q17" s="20" t="n">
+      <c r="R17" s="20" t="n">
         <v>2459.62</v>
       </c>
-      <c r="R17" s="20" t="n">
+      <c r="S17" s="20" t="n">
         <v>2458.07</v>
       </c>
-      <c r="S17" s="20" t="n">
+      <c r="T17" s="20" t="n">
         <v>544.86</v>
       </c>
-      <c r="T17" s="19" t="inlineStr">
+      <c r="U17" s="19" t="inlineStr">
         <is>
           <t>s02</t>
         </is>
@@ -1622,49 +1644,50 @@
       <c r="C18" s="19" t="inlineStr"/>
       <c r="D18" s="19" t="inlineStr"/>
       <c r="E18" s="19" t="inlineStr"/>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="19" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="H18" s="20" t="n">
         <v>1918.31</v>
       </c>
-      <c r="H18" s="20" t="n">
+      <c r="I18" s="20" t="n">
         <v>1959.5</v>
       </c>
-      <c r="I18" s="20" t="n">
+      <c r="J18" s="20" t="n">
         <v>1993.36</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="K18" s="20" t="n">
         <v>3129.73</v>
       </c>
-      <c r="K18" s="20" t="n">
+      <c r="L18" s="20" t="n">
         <v>4050.31</v>
       </c>
-      <c r="L18" s="20" t="n">
+      <c r="M18" s="20" t="n">
         <v>4155.17</v>
       </c>
-      <c r="M18" s="20" t="n">
+      <c r="N18" s="20" t="n">
         <v>4155.37</v>
       </c>
-      <c r="N18" s="20" t="n">
+      <c r="O18" s="20" t="n">
         <v>4426.87</v>
       </c>
-      <c r="O18" s="20" t="n">
+      <c r="P18" s="20" t="n">
         <v>4424.87</v>
       </c>
-      <c r="P18" s="20" t="n">
+      <c r="Q18" s="20" t="n">
         <v>4422.47</v>
       </c>
-      <c r="Q18" s="20" t="n">
+      <c r="R18" s="20" t="n">
         <v>4420.72</v>
       </c>
-      <c r="R18" s="20" t="n">
+      <c r="S18" s="20" t="n">
         <v>4419.17</v>
       </c>
-      <c r="S18" s="20" t="n">
+      <c r="T18" s="20" t="n">
         <v>2505.96</v>
       </c>
-      <c r="T18" s="19" t="inlineStr">
+      <c r="U18" s="19" t="inlineStr">
         <is>
           <t>s02</t>
         </is>
@@ -1680,49 +1703,50 @@
       <c r="C19" s="22" t="inlineStr"/>
       <c r="D19" s="22" t="inlineStr"/>
       <c r="E19" s="22" t="inlineStr"/>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="22" t="inlineStr"/>
+      <c r="G19" s="23" t="n">
         <v>1913.21</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="H19" s="23" t="n">
         <v>1916.31</v>
       </c>
-      <c r="H19" s="23" t="n">
+      <c r="I19" s="23" t="n">
         <v>1951.82</v>
       </c>
-      <c r="I19" s="23" t="n">
+      <c r="J19" s="23" t="n">
         <v>1965.52</v>
       </c>
-      <c r="J19" s="23" t="n">
+      <c r="K19" s="23" t="n">
         <v>1968.29</v>
       </c>
-      <c r="K19" s="23" t="n">
+      <c r="L19" s="23" t="n">
         <v>2087.12</v>
       </c>
-      <c r="L19" s="23" t="n">
+      <c r="M19" s="23" t="n">
         <v>2087.58</v>
       </c>
-      <c r="M19" s="23" t="n">
+      <c r="N19" s="23" t="n">
         <v>2087.78</v>
       </c>
-      <c r="N19" s="23" t="n">
+      <c r="O19" s="23" t="n">
         <v>2087.98</v>
       </c>
-      <c r="O19" s="23" t="n">
+      <c r="P19" s="23" t="n">
         <v>2088.18</v>
       </c>
-      <c r="P19" s="23" t="n">
+      <c r="Q19" s="23" t="n">
         <v>2088.38</v>
       </c>
-      <c r="Q19" s="23" t="n">
+      <c r="R19" s="23" t="n">
         <v>2088.53</v>
       </c>
-      <c r="R19" s="23" t="n">
+      <c r="S19" s="23" t="n">
         <v>2088.68</v>
       </c>
-      <c r="S19" s="23" t="n">
+      <c r="T19" s="23" t="n">
         <v>175.47</v>
       </c>
-      <c r="T19" s="22" t="inlineStr">
+      <c r="U19" s="22" t="inlineStr">
         <is>
           <t>s04</t>
         </is>
@@ -1749,17 +1773,19 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="25" t="inlineStr">
+        <is>
+          <t>0 - действующие потребители</t>
+        </is>
+      </c>
+      <c r="F20" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="26" t="n">
+      <c r="G20" s="26" t="n">
         <v>324.83</v>
       </c>
-      <c r="G20" s="26" t="n">
+      <c r="H20" s="26" t="n">
         <v>364.03</v>
-      </c>
-      <c r="H20" s="26" t="n">
-        <v>365</v>
       </c>
       <c r="I20" s="26" t="n">
         <v>365</v>
@@ -1792,9 +1818,12 @@
         <v>365</v>
       </c>
       <c r="S20" s="26" t="n">
+        <v>365</v>
+      </c>
+      <c r="T20" s="26" t="n">
         <v>40.17</v>
       </c>
-      <c r="T20" s="25" t="inlineStr">
+      <c r="U20" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -1821,17 +1850,19 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="25" t="inlineStr">
+        <is>
+          <t>0 - действующие потребители</t>
+        </is>
+      </c>
+      <c r="F21" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="G21" s="26" t="n">
         <v>816.51</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="H21" s="26" t="n">
         <v>765.89</v>
-      </c>
-      <c r="H21" s="26" t="n">
-        <v>773.45</v>
       </c>
       <c r="I21" s="26" t="n">
         <v>773.45</v>
@@ -1840,7 +1871,7 @@
         <v>773.45</v>
       </c>
       <c r="K21" s="26" t="n">
-        <v>882.12</v>
+        <v>773.45</v>
       </c>
       <c r="L21" s="26" t="n">
         <v>882.12</v>
@@ -1864,9 +1895,12 @@
         <v>882.12</v>
       </c>
       <c r="S21" s="26" t="n">
+        <v>882.12</v>
+      </c>
+      <c r="T21" s="26" t="n">
         <v>65.61</v>
       </c>
-      <c r="T21" s="25" t="inlineStr">
+      <c r="U21" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -1893,26 +1927,28 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="25" t="inlineStr">
+        <is>
+          <t>0 - действующие потребители</t>
+        </is>
+      </c>
+      <c r="F22" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="G22" s="26" t="n">
         <v>23.9</v>
       </c>
-      <c r="G22" s="26" t="n">
+      <c r="H22" s="26" t="n">
         <v>37.54</v>
       </c>
-      <c r="H22" s="26" t="n">
+      <c r="I22" s="26" t="n">
         <v>38.4</v>
-      </c>
-      <c r="I22" s="26" t="n">
-        <v>38.41</v>
       </c>
       <c r="J22" s="26" t="n">
         <v>38.41</v>
       </c>
       <c r="K22" s="26" t="n">
-        <v>38.8</v>
+        <v>38.41</v>
       </c>
       <c r="L22" s="26" t="n">
         <v>38.8</v>
@@ -1936,9 +1972,12 @@
         <v>38.8</v>
       </c>
       <c r="S22" s="26" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="T22" s="26" t="n">
         <v>14.9</v>
       </c>
-      <c r="T22" s="25" t="inlineStr">
+      <c r="U22" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -1965,17 +2004,19 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="25" t="inlineStr">
+        <is>
+          <t>0 - действующие потребители</t>
+        </is>
+      </c>
+      <c r="F23" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="G23" s="26" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G23" s="26" t="n">
+      <c r="H23" s="26" t="n">
         <v>0.68</v>
-      </c>
-      <c r="H23" s="26" t="n">
-        <v>0.8200000000000001</v>
       </c>
       <c r="I23" s="26" t="n">
         <v>0.8200000000000001</v>
@@ -2008,9 +2049,12 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="S23" s="26" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="T23" s="26" t="n">
         <v>0.01</v>
       </c>
-      <c r="T23" s="25" t="inlineStr">
+      <c r="U23" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2026,49 +2070,50 @@
       <c r="C24" s="25" t="inlineStr"/>
       <c r="D24" s="25" t="inlineStr"/>
       <c r="E24" s="25" t="inlineStr"/>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="25" t="inlineStr"/>
+      <c r="G24" s="26" t="n">
         <v>747.16</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="H24" s="26" t="n">
         <v>748.17</v>
       </c>
-      <c r="H24" s="26" t="n">
+      <c r="I24" s="26" t="n">
         <v>774.15</v>
       </c>
-      <c r="I24" s="26" t="n">
+      <c r="J24" s="26" t="n">
         <v>787.84</v>
       </c>
-      <c r="J24" s="26" t="n">
+      <c r="K24" s="26" t="n">
         <v>790.61</v>
       </c>
-      <c r="K24" s="26" t="n">
+      <c r="L24" s="26" t="n">
         <v>800.38</v>
       </c>
-      <c r="L24" s="26" t="n">
+      <c r="M24" s="26" t="n">
         <v>800.84</v>
       </c>
-      <c r="M24" s="26" t="n">
+      <c r="N24" s="26" t="n">
         <v>801.04</v>
       </c>
-      <c r="N24" s="26" t="n">
+      <c r="O24" s="26" t="n">
         <v>801.24</v>
       </c>
-      <c r="O24" s="26" t="n">
+      <c r="P24" s="26" t="n">
         <v>801.4400000000001</v>
       </c>
-      <c r="P24" s="26" t="n">
+      <c r="Q24" s="26" t="n">
         <v>801.64</v>
       </c>
-      <c r="Q24" s="26" t="n">
+      <c r="R24" s="26" t="n">
         <v>801.79</v>
       </c>
-      <c r="R24" s="26" t="n">
+      <c r="S24" s="26" t="n">
         <v>801.9400000000001</v>
       </c>
-      <c r="S24" s="26" t="n">
+      <c r="T24" s="26" t="n">
         <v>54.78</v>
       </c>
-      <c r="T24" s="25" t="inlineStr">
+      <c r="U24" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2084,26 +2129,24 @@
       <c r="C25" s="22" t="inlineStr"/>
       <c r="D25" s="22" t="inlineStr"/>
       <c r="E25" s="22" t="inlineStr"/>
-      <c r="F25" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="22" t="inlineStr"/>
       <c r="G25" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="I25" s="23" t="n">
         <v>7.68</v>
       </c>
-      <c r="I25" s="23" t="n">
+      <c r="J25" s="23" t="n">
         <v>27.84</v>
       </c>
-      <c r="J25" s="23" t="n">
+      <c r="K25" s="23" t="n">
         <v>143.6</v>
       </c>
-      <c r="K25" s="23" t="n">
+      <c r="L25" s="23" t="n">
         <v>273.39</v>
-      </c>
-      <c r="L25" s="23" t="n">
-        <v>377.79</v>
       </c>
       <c r="M25" s="23" t="n">
         <v>377.79</v>
@@ -2112,21 +2155,24 @@
         <v>377.79</v>
       </c>
       <c r="O25" s="23" t="n">
+        <v>377.79</v>
+      </c>
+      <c r="P25" s="23" t="n">
         <v>375.59</v>
       </c>
-      <c r="P25" s="23" t="n">
+      <c r="Q25" s="23" t="n">
         <v>372.99</v>
       </c>
-      <c r="Q25" s="23" t="n">
+      <c r="R25" s="23" t="n">
         <v>371.09</v>
-      </c>
-      <c r="R25" s="23" t="n">
-        <v>369.39</v>
       </c>
       <c r="S25" s="23" t="n">
         <v>369.39</v>
       </c>
-      <c r="T25" s="22" t="inlineStr">
+      <c r="T25" s="23" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="U25" s="22" t="inlineStr">
         <is>
           <t>s04</t>
         </is>
@@ -2153,12 +2199,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="25" t="inlineStr">
+        <is>
+          <t>2 - средняя вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F26" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" s="26" t="n">
         <v>0</v>
       </c>
@@ -2175,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="26" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M26" s="26" t="n">
         <v>17</v>
@@ -2198,7 +2246,10 @@
       <c r="S26" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="T26" s="25" t="inlineStr">
+      <c r="T26" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="U26" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2225,12 +2276,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="25" t="inlineStr">
+        <is>
+          <t>2 - средняя вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F27" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" s="26" t="n">
         <v>0</v>
       </c>
@@ -2241,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="26" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="K27" s="26" t="n">
         <v>56.4</v>
       </c>
       <c r="L27" s="26" t="n">
-        <v>134</v>
+        <v>56.4</v>
       </c>
       <c r="M27" s="26" t="n">
         <v>134</v>
@@ -2270,7 +2323,10 @@
       <c r="S27" s="26" t="n">
         <v>134</v>
       </c>
-      <c r="T27" s="25" t="inlineStr">
+      <c r="T27" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="U27" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2297,12 +2353,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="25" t="inlineStr">
+        <is>
+          <t>2 - средняя вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F28" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" s="26" t="n">
         <v>0</v>
       </c>
@@ -2313,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="26" t="n">
         <v>50</v>
-      </c>
-      <c r="K28" s="26" t="n">
-        <v>100</v>
       </c>
       <c r="L28" s="26" t="n">
         <v>100</v>
@@ -2342,7 +2400,10 @@
       <c r="S28" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="T28" s="25" t="inlineStr">
+      <c r="T28" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="U28" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2369,12 +2430,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="25" t="inlineStr">
+        <is>
+          <t>2 - средняя вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F29" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F29" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" s="26" t="n">
         <v>0</v>
       </c>
@@ -2388,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="26" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="L29" s="26" t="n">
         <v>50.4</v>
@@ -2414,7 +2477,10 @@
       <c r="S29" s="26" t="n">
         <v>50.4</v>
       </c>
-      <c r="T29" s="25" t="inlineStr">
+      <c r="T29" s="26" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="U29" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2441,26 +2507,28 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="25" t="inlineStr">
+        <is>
+          <t>1 - высокая вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F30" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" s="26" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="H30" s="26" t="n">
         <v>1.68</v>
       </c>
       <c r="I30" s="26" t="n">
-        <v>12.59</v>
+        <v>1.68</v>
       </c>
       <c r="J30" s="26" t="n">
         <v>12.59</v>
       </c>
       <c r="K30" s="26" t="n">
-        <v>14</v>
+        <v>12.59</v>
       </c>
       <c r="L30" s="26" t="n">
         <v>14</v>
@@ -2472,21 +2540,24 @@
         <v>14</v>
       </c>
       <c r="O30" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="P30" s="26" t="n">
         <v>11.8</v>
       </c>
-      <c r="P30" s="26" t="n">
+      <c r="Q30" s="26" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Q30" s="26" t="n">
+      <c r="R30" s="26" t="n">
         <v>7.3</v>
-      </c>
-      <c r="R30" s="26" t="n">
-        <v>5.6</v>
       </c>
       <c r="S30" s="26" t="n">
         <v>5.6</v>
       </c>
-      <c r="T30" s="25" t="inlineStr">
+      <c r="T30" s="26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U30" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2502,26 +2573,24 @@
       <c r="C31" s="25" t="inlineStr"/>
       <c r="D31" s="25" t="inlineStr"/>
       <c r="E31" s="25" t="inlineStr"/>
-      <c r="F31" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="25" t="inlineStr"/>
       <c r="G31" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26" t="n">
         <v>0.32</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="I31" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="26" t="n">
+      <c r="J31" s="26" t="n">
         <v>15.25</v>
       </c>
-      <c r="J31" s="26" t="n">
+      <c r="K31" s="26" t="n">
         <v>24.61</v>
       </c>
-      <c r="K31" s="26" t="n">
+      <c r="L31" s="26" t="n">
         <v>52.59</v>
-      </c>
-      <c r="L31" s="26" t="n">
-        <v>62.39</v>
       </c>
       <c r="M31" s="26" t="n">
         <v>62.39</v>
@@ -2544,7 +2613,10 @@
       <c r="S31" s="26" t="n">
         <v>62.39</v>
       </c>
-      <c r="T31" s="25" t="inlineStr">
+      <c r="T31" s="26" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="U31" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2560,9 +2632,7 @@
       <c r="C32" s="22" t="inlineStr"/>
       <c r="D32" s="22" t="inlineStr"/>
       <c r="E32" s="22" t="inlineStr"/>
-      <c r="F32" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="22" t="inlineStr"/>
       <c r="G32" s="23" t="n">
         <v>0</v>
       </c>
@@ -2573,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="23" t="n">
         <v>1017.84</v>
-      </c>
-      <c r="K32" s="23" t="n">
-        <v>1689.8</v>
       </c>
       <c r="L32" s="23" t="n">
         <v>1689.8</v>
@@ -2585,7 +2655,7 @@
         <v>1689.8</v>
       </c>
       <c r="N32" s="23" t="n">
-        <v>1961.1</v>
+        <v>1689.8</v>
       </c>
       <c r="O32" s="23" t="n">
         <v>1961.1</v>
@@ -2602,7 +2672,10 @@
       <c r="S32" s="23" t="n">
         <v>1961.1</v>
       </c>
-      <c r="T32" s="22" t="inlineStr">
+      <c r="T32" s="23" t="n">
+        <v>1961.1</v>
+      </c>
+      <c r="U32" s="22" t="inlineStr">
         <is>
           <t>s04</t>
         </is>
@@ -2629,12 +2702,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="25" t="inlineStr">
+        <is>
+          <t>3 - низкая вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F33" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" s="26" t="n">
         <v>0</v>
       </c>
@@ -2645,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K33" s="26" t="n">
         <v>25</v>
@@ -2674,7 +2749,10 @@
       <c r="S33" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="T33" s="25" t="inlineStr">
+      <c r="T33" s="26" t="n">
+        <v>25</v>
+      </c>
+      <c r="U33" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2701,12 +2779,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="25" t="inlineStr">
+        <is>
+          <t>3 - низкая вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F34" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" s="26" t="n">
         <v>0</v>
       </c>
@@ -2729,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="26" t="n">
-        <v>271.3</v>
+        <v>0</v>
       </c>
       <c r="O34" s="26" t="n">
         <v>271.3</v>
@@ -2746,7 +2826,10 @@
       <c r="S34" s="26" t="n">
         <v>271.3</v>
       </c>
-      <c r="T34" s="25" t="inlineStr">
+      <c r="T34" s="26" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="U34" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2773,12 +2856,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="25" t="inlineStr">
+        <is>
+          <t>3 - низкая вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F35" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F35" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" s="26" t="n">
         <v>0</v>
       </c>
@@ -2789,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="26" t="n">
         <v>554.8</v>
-      </c>
-      <c r="K35" s="26" t="n">
-        <v>788.4</v>
       </c>
       <c r="L35" s="26" t="n">
         <v>788.4</v>
@@ -2818,7 +2903,10 @@
       <c r="S35" s="26" t="n">
         <v>788.4</v>
       </c>
-      <c r="T35" s="25" t="inlineStr">
+      <c r="T35" s="26" t="n">
+        <v>788.4</v>
+      </c>
+      <c r="U35" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2845,12 +2933,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="25" t="inlineStr">
+        <is>
+          <t>3 - низкая вероятность реализации проекта</t>
+        </is>
+      </c>
+      <c r="F36" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="26" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" s="26" t="n">
         <v>0</v>
       </c>
@@ -2861,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="26" t="n">
         <v>438</v>
-      </c>
-      <c r="K36" s="26" t="n">
-        <v>876</v>
       </c>
       <c r="L36" s="26" t="n">
         <v>876</v>
@@ -2890,7 +2980,10 @@
       <c r="S36" s="26" t="n">
         <v>876</v>
       </c>
-      <c r="T36" s="25" t="inlineStr">
+      <c r="T36" s="26" t="n">
+        <v>876</v>
+      </c>
+      <c r="U36" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2906,9 +2999,7 @@
       <c r="C37" s="25" t="inlineStr"/>
       <c r="D37" s="25" t="inlineStr"/>
       <c r="E37" s="25" t="inlineStr"/>
-      <c r="F37" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="25" t="inlineStr"/>
       <c r="G37" s="26" t="n">
         <v>0</v>
       </c>
@@ -2919,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="26" t="n">
         <v>0.04</v>
-      </c>
-      <c r="K37" s="26" t="n">
-        <v>0.4</v>
       </c>
       <c r="L37" s="26" t="n">
         <v>0.4</v>
@@ -2948,7 +3039,10 @@
       <c r="S37" s="26" t="n">
         <v>0.4</v>
       </c>
-      <c r="T37" s="25" t="inlineStr">
+      <c r="T37" s="26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U37" s="25" t="inlineStr">
         <is>
           <t>s041</t>
         </is>
@@ -2956,9 +3050,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
